--- a/com.VisionIT.FreeCrmPro.HybridFramework/TestData/TestData.xlsx
+++ b/com.VisionIT.FreeCrmPro.HybridFramework/TestData/TestData.xlsx
@@ -4,60 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="presentation_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="facebook_login" sheetId="2" r:id="rId2"/>
-    <sheet name="new_sel_batch_sep15" sheetId="3" r:id="rId3"/>
-    <sheet name="sigupData" sheetId="8" r:id="rId4"/>
-    <sheet name="login" sheetId="9" r:id="rId5"/>
+    <sheet name="facebook_login" sheetId="2" r:id="rId1"/>
+    <sheet name="sigupData" sheetId="8" r:id="rId2"/>
+    <sheet name="login" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
-  <si>
-    <t>Presentation_Topics</t>
-  </si>
-  <si>
-    <t>Presentation_Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>QA_Session</t>
-  </si>
-  <si>
-    <t>Sahil, Shivani, Pooja, Mayuri, Priyanka</t>
-  </si>
-  <si>
-    <t>Groups</t>
-  </si>
-  <si>
-    <t>Jaya, Shree, Chanda, Sukanya, Komal, Aishwarya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. How to find broken link in selenium WebDriver.
-2. How to handle Normal drop down in selenium WebDriver.
-3. How to handle bootstrap drop down in Selenium WebDriver.
-4. How to handle Pop up or alert box by using Selenium WebDriver and By using robot class and By using AutoIT.
-5. How to upload and download file using selenium WebDriver . 
-.6. How to upload and download file using AutoIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. How to Verify Tooltip using Selenium WebDriver
-2. How to Handle Calender in Selenium WebDriver
-3.How to Handle Web Table in Selenium WebDriver
-4.Handling Dynamic Web Tables Using Selenium WebDriver
-5. Desired Capabilities in Selenium WebDriver
-6. Difference between selenium IDE, Selenium RC and Selenium WebDriver.
-7. Cross browser Testing in selenium WebDriver.
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>facebook</t>
   </si>
@@ -193,107 +152,6 @@
   </si>
   <si>
     <t>User must not able  to login succesfuly into an application.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Mo.No.</t>
-  </si>
-  <si>
-    <t>Indrayani Kulkarni</t>
-  </si>
-  <si>
-    <t>Pornima Jagatkar</t>
-  </si>
-  <si>
-    <t>Priyanka Shingade</t>
-  </si>
-  <si>
-    <t>Dhaval Hingalkar</t>
-  </si>
-  <si>
-    <t>Latur</t>
-  </si>
-  <si>
-    <t>Parali</t>
-  </si>
-  <si>
-    <t>Baramatti</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>Dist.</t>
-  </si>
-  <si>
-    <t>Puneet Pathekar</t>
-  </si>
-  <si>
-    <t>Bholal</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>1. How to perform Advance activity in Selenium like- Mouse Hover, RightClick, DoubleClick, Keyboard Event, Drag and Drop, etc.
-2. Synchronization in selenium webdriver using 
-a. Implicit wait in selenium Webdriver
-b.Explicit Wait in Selenium Webdriver
-c. Fluent Wait in Selenium Webdriver
-3. Create custom library to solve sync issues in Selenium Webdriver
-4. How to work with Radio button and Checkbox in Selenium Webdriver
-5. What is config file or object repository how to use properties file in selenium WebDriver.</t>
-  </si>
-  <si>
-    <t>1. How to capture error message in Selenium Webdriver.
-2. How to Handle Multiple Windows in Selenium Webdriver
-3. How to handle frames in Selenium Webdriver
-4.Handle BootStrap Model Dialog in Selenium WebDriver
-5.How to capture Screenshot in Selenium
-6.Difference between findElement and findElements in Selenium Webdriver
-7.How to solve Invalid State Elememt Exception in Selenium
-8.How to handle Element not visible exception
-9.How to Handle Element is not Clickable in x,y coordinate 
-10. Solution for sendkeys(CharSequence) in Selenium</t>
-  </si>
-  <si>
-    <t>Akshay Lanjulkar</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>rshushikesh dapkekar</t>
-  </si>
-  <si>
-    <t>Shrrekant Salunke</t>
-  </si>
-  <si>
-    <t>1. Why use TestNg with selenium
-2. Advantages of TestNG over Junit
-3. Parameterization In TestNG
-4. TestNg Listeners 
-5. How to execute TestNg.xml through java program
-6. How to create Dependancies between test cases.
-7. How to perform data driven testing using testNG
-8. WebDriverEvent listeners in Selenium
-9. TestNg repoters and groups in testNg.
-10. parallel execution based on method and class in TestNg.</t>
-  </si>
-  <si>
-    <t>1. Cross browser testing in testNg.
-2. How to execute failed test cases in testNg.
-3. How to disable testcases in testNg
-4. How to capture failed test cases screenshots in selenium
-5. How to handle proxy in selenium WebDriver.
-6. How to scroll page in selenium WebDriver
-7. How to scroll into view in selenium or handle particular scroll bar in selenium.
-8. How to handle untrusted certificate in selenium webdriver .
-9. Handle hidden webelement in selenium WebDriver.
-10.How to handle element not clickable at point in selenium WebDriver.
-11. Write your own css in selenium webdriver.</t>
   </si>
   <si>
     <t>Select_DD</t>
@@ -381,40 +239,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,29 +260,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -517,73 +322,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -886,133 +653,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="86.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43718</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43719</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="20">
-        <v>43724</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20">
-        <v>43725</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="24">
-        <v>43732</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="24">
-        <v>43733</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -1037,187 +677,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="L9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="206.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="G11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="I11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="206.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="15"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,129 +865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="16">
-        <v>9423348555</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="16">
-        <v>7507658314</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="16">
-        <v>7057461095</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="16">
-        <v>8983407037</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="16">
-        <v>7738622791</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="16">
-        <v>8855876105</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="16">
-        <v>7020965368</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="16">
-        <v>9767726252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,84 +892,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>99</v>
+        <v>69</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>9876543210</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1476,18 +999,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
